--- a/hot-deploy/partner/document/2015 问题和需求汇总/2015新模块需求 .xlsx
+++ b/hot-deploy/partner/document/2015 问题和需求汇总/2015新模块需求 .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="144">
   <si>
     <t>提出时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -920,12 +920,20 @@
     <t>打印 - 销售出货通知单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>需求分析文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《20150320 需求分析.xlsx》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,7 +1281,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="310">
+  <dxfs count="216">
     <dxf>
       <fill>
         <patternFill>
@@ -1340,6 +1348,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1387,6 +1416,993 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1401,132 +2417,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1541,111 +2431,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1660,300 +2445,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1968,1035 +2459,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3009,118 +2471,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3500,7 +2850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3532,9 +2882,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3566,6 +2917,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3741,14 +3093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5" style="9" customWidth="1"/>
@@ -3756,10 +3108,11 @@
     <col min="5" max="5" width="17.375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="87.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -3781,8 +3134,11 @@
       <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>42014</v>
       </c>
@@ -3805,7 +3161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5">
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>42021</v>
       </c>
@@ -3827,8 +3183,11 @@
       <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.5">
+      <c r="H3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>42310</v>
       </c>
@@ -3850,8 +3209,11 @@
       <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="108">
+      <c r="H4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>42070</v>
       </c>
@@ -3873,8 +3235,11 @@
       <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27">
+      <c r="H5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>42070</v>
       </c>
@@ -3897,7 +3262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.75">
+    <row r="7" spans="1:8" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>42072</v>
       </c>
@@ -3917,8 +3282,11 @@
       <c r="G7" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="27">
+      <c r="H7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>42072</v>
       </c>
@@ -3938,8 +3306,11 @@
       <c r="G8" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>42072</v>
       </c>
@@ -3960,7 +3331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>42072</v>
       </c>
@@ -3980,8 +3351,11 @@
       <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>42072</v>
       </c>
@@ -4001,8 +3375,11 @@
       <c r="G11" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>42072</v>
       </c>
@@ -4022,7 +3399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>42072</v>
       </c>
@@ -4043,7 +3420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27">
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>42072</v>
       </c>
@@ -4064,7 +3441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>42072</v>
       </c>
@@ -4083,7 +3460,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>42072</v>
       </c>
@@ -4103,8 +3480,11 @@
       <c r="G16" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>42072</v>
       </c>
@@ -4125,7 +3505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25">
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>42072</v>
       </c>
@@ -4146,7 +3526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>42072</v>
       </c>
@@ -4167,7 +3547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27">
+    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>42072</v>
       </c>
@@ -4188,7 +3568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>42072</v>
       </c>
@@ -4209,7 +3589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27">
+    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>42072</v>
       </c>
@@ -4230,7 +3610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5">
+    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>42072</v>
       </c>
@@ -4250,8 +3630,11 @@
       <c r="G23" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="27">
+      <c r="H23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>42105</v>
       </c>
@@ -4271,8 +3654,11 @@
       <c r="G24" s="21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>42105</v>
       </c>
@@ -4292,8 +3678,11 @@
       <c r="G25" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>42105</v>
       </c>
@@ -4312,8 +3701,11 @@
       <c r="G26" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>42105</v>
       </c>
@@ -4333,7 +3725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="40.5">
+    <row r="28" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>42105</v>
       </c>
@@ -4353,7 +3745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>42105</v>
       </c>
@@ -4376,740 +3768,740 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B23">
-    <cfRule type="cellIs" dxfId="309" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="263" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="264" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="307" priority="237" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="238" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="237" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="238" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="239" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="304" priority="265" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="265" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="265" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="265" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="265" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="301" priority="190" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="191" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="190" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="191" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="192" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="298" priority="187" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="188" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="187" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="188" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="189" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="295" priority="184" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="185" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="184" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="185" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="186" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="292" priority="181" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="182" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="181" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="182" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="183" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="289" priority="178" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="179" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="178" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="179" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="180" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="286" priority="175" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="176" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="175" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="176" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="177" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C23">
-    <cfRule type="cellIs" dxfId="283" priority="172" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="173" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="172" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="173" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="174" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C23">
-    <cfRule type="cellIs" dxfId="280" priority="169" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="170" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="169" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="170" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="171" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C23">
-    <cfRule type="cellIs" dxfId="277" priority="166" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="167" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="166" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="167" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="168" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C23">
-    <cfRule type="cellIs" dxfId="274" priority="163" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="164" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="163" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="164" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="165" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C23">
-    <cfRule type="cellIs" dxfId="271" priority="160" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="161" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="160" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="161" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="162" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C23">
-    <cfRule type="cellIs" dxfId="268" priority="157" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="158" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="157" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="158" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="159" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="257" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="155" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="156" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="cellIs" dxfId="255" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="153" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="154" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="253" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="151" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="152" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="251" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="149" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="150" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="249" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="147" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="148" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="247" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="145" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="146" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="245" priority="142" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="143" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="142" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="143" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="144" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="242" priority="139" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="140" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="139" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="140" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="141" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="239" priority="136" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="137" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="136" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="137" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="138" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="236" priority="133" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="134" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="133" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="134" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="135" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="233" priority="130" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="131" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="130" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="131" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="132" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="230" priority="127" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="128" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="127" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="128" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="129" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="227" priority="124" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="125" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="124" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="125" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="126" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="224" priority="121" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="122" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="121" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="122" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="123" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="221" priority="118" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="119" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="118" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="119" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="120" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="218" priority="115" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="116" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="115" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="116" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="117" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="215" priority="112" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="113" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="112" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="113" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="114" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="212" priority="109" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="110" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="109" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="110" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="111" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="209" priority="106" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="107" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="106" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="107" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="108" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="206" priority="103" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="104" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="103" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="104" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="105" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="203" priority="100" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="101" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="100" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="101" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="102" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="200" priority="97" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="98" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="97" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="98" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="99" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="197" priority="94" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="95" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="94" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="95" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="96" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="194" priority="91" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="92" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="91" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="92" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="93" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="191" priority="88" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="89" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="88" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="89" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="90" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="188" priority="85" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="86" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="85" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="86" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="87" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="185" priority="82" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="83" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="82" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="83" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="84" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="182" priority="79" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="80" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="79" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="80" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="81" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="179" priority="76" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="77" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="76" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="77" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="78" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="176" priority="73" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="74" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="73" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="74" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="173" priority="70" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="71" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="70" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="71" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="72" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="170" priority="67" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="68" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="67" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="68" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="69" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="167" priority="64" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="65" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="64" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="65" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="66" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="164" priority="61" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="62" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="61" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="62" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="63" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="161" priority="58" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="59" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="58" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="158" priority="55" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="56" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="55" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="56" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="57" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="155" priority="52" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="53" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="53" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="152" priority="49" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="50" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="51" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="149" priority="46" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="47" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="47" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="48" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="146" priority="43" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="44" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="45" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="143" priority="40" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="41" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="40" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="42" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="140" priority="37" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="38" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="39" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="137" priority="34" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="35" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="134" priority="31" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="32" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="33" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="131" priority="28" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="29" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="29" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="30" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="128" priority="25" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="26" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="125" priority="22" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="23" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="122" priority="19" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="20" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="119" priority="16" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="17" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="116" priority="13" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="14" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="113" priority="10" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5127,14 +4519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5" style="9" customWidth="1"/>
@@ -5147,7 +4539,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5173,7 +4565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>42014</v>
       </c>
@@ -5199,7 +4591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="67.5">
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>42014</v>
       </c>
@@ -5225,7 +4617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27">
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>42014</v>
       </c>
@@ -5251,7 +4643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>42014</v>
       </c>
@@ -5277,7 +4669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="337.5">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>42028</v>
       </c>
@@ -5302,7 +4694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="364.5">
+    <row r="7" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>42028</v>
       </c>
@@ -5331,7 +4723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="135">
+    <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>42028</v>
       </c>
@@ -5358,7 +4750,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" s="27" customFormat="1" ht="108">
+    <row r="9" spans="1:9" s="27" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42028</v>
       </c>
@@ -5379,7 +4771,7 @@
       </c>
       <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="1:9" ht="27">
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>42070</v>
       </c>
@@ -5405,7 +4797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>42070</v>
       </c>
@@ -5431,7 +4823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.5">
+    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>42070</v>
       </c>
@@ -5457,7 +4849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>42070</v>
       </c>
@@ -5483,7 +4875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>42070</v>
       </c>
@@ -5509,7 +4901,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="94.5">
+    <row r="15" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>42070</v>
       </c>
@@ -5535,7 +4927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>42081</v>
       </c>
@@ -5561,7 +4953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>42081</v>
       </c>
@@ -5587,7 +4979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="40" customFormat="1" ht="162">
+    <row r="18" spans="1:9" s="40" customFormat="1" ht="162" x14ac:dyDescent="0.15">
       <c r="A18" s="34">
         <v>42082</v>
       </c>
@@ -5614,7 +5006,7 @@
       </c>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="27">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>42082</v>
       </c>
@@ -5640,7 +5032,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="108">
+    <row r="20" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>42083</v>
       </c>
@@ -5666,7 +5058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27">
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>42089</v>
       </c>
@@ -5692,7 +5084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="67.5">
+    <row r="22" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>42090</v>
       </c>
@@ -5718,7 +5110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="40" customFormat="1" ht="58.5" customHeight="1">
+    <row r="23" spans="1:9" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34">
         <v>42093</v>
       </c>
@@ -5745,7 +5137,7 @@
       </c>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>42105</v>
       </c>
@@ -5769,7 +5161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>42105</v>
       </c>
@@ -5791,7 +5183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27">
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>42105</v>
       </c>
@@ -5813,7 +5205,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>42105</v>
       </c>
@@ -5835,7 +5227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27">
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>42105</v>
       </c>
@@ -5859,7 +5251,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27">
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>42105</v>
       </c>
@@ -5881,7 +5273,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>42105</v>
       </c>
@@ -5903,7 +5295,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>42105</v>
       </c>
@@ -5925,7 +5317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>42105</v>
       </c>
@@ -5947,7 +5339,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="27">
+    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>42105</v>
       </c>
@@ -5969,7 +5361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.5">
+    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>42105</v>
       </c>
@@ -5993,7 +5385,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="27">
+    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>42105</v>
       </c>
@@ -6017,7 +5409,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.5">
+    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>42105</v>
       </c>
@@ -6039,7 +5431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>42105</v>
       </c>
@@ -6063,7 +5455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="54">
+    <row r="38" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>42105</v>
       </c>
@@ -6087,7 +5479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.5">
+    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>42105</v>
       </c>
@@ -6111,7 +5503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>42105</v>
       </c>
@@ -6135,7 +5527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>42105</v>
       </c>
@@ -6159,7 +5551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="121.5">
+    <row r="42" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>42105</v>
       </c>
@@ -6183,7 +5575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>42105</v>
       </c>
@@ -6207,7 +5599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="40.5">
+    <row r="44" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <v>42105</v>
       </c>
@@ -6231,7 +5623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="27">
+    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>42105</v>
       </c>
@@ -6255,7 +5647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="27">
+    <row r="46" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <v>42105</v>
       </c>
@@ -6279,7 +5671,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>42105</v>
       </c>
@@ -6311,32 +5703,32 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B5 B7:B17 B19:B22 B24:B47">
-    <cfRule type="cellIs" dxfId="7" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="536" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="537" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C999">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C47">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6354,14 +5746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.5" style="9" customWidth="1"/>
@@ -6370,7 +5762,7 @@
     <col min="7" max="7" width="87.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6393,7 +5785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -6401,7 +5793,7 @@
       <c r="E2" s="8"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6409,7 +5801,7 @@
       <c r="E3" s="8"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6417,82 +5809,82 @@
       <c r="E4" s="8"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C18">
-    <cfRule type="cellIs" dxfId="265" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="263" priority="16" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="17" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="260" priority="13" operator="equal">
-      <formula>"高"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="14" operator="equal">
-      <formula>"低"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
